--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9940" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +362,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +409,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -772,10 +796,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -819,28 +843,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -865,28 +889,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -945,10 +969,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -992,28 +1016,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="A30" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="3">
+      <c r="C30" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1038,28 +1062,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="3">
+      <c r="I32" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1118,10 +1142,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1165,28 +1189,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="A36" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="3">
+      <c r="C36" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1211,28 +1235,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1291,10 +1315,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="3" t="s">
+      <c r="J40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1338,28 +1362,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="3">
+      <c r="A42" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="3">
+      <c r="C42" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1384,28 +1408,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="3">
+      <c r="C44" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="3">
+      <c r="D44" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="F44" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="3">
+      <c r="H44" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="3">
+      <c r="I44" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1464,10 +1488,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="3" t="s">
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1511,28 +1535,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="3">
+      <c r="A48" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="3">
+      <c r="C48" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1557,28 +1581,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="3">
+      <c r="I50" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1637,10 +1661,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="3" t="s">
+      <c r="J52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1684,28 +1708,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="3">
+      <c r="A54" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="3">
+      <c r="C54" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1730,28 +1754,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="3">
+      <c r="C56" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="3">
+      <c r="D56" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="3">
+      <c r="I56" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1810,10 +1834,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="3" t="s">
+      <c r="J58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1857,28 +1881,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="3">
+      <c r="A60" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="3">
+      <c r="C60" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1903,28 +1927,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="3">
+      <c r="C62" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="3">
+      <c r="D62" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="3">
+      <c r="I62" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +2007,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2030,28 +2054,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2100,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2156,10 +2180,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="3" t="s">
+      <c r="J70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2203,28 +2227,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="A72" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="3">
+      <c r="C72" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2249,28 +2273,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="3">
+      <c r="I74" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2329,10 +2353,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="3" t="s">
+      <c r="J76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2376,28 +2400,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="3">
+      <c r="A78" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="3">
+      <c r="C78" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2422,28 +2446,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="3">
+      <c r="C80" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="3">
+      <c r="D80" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="3">
+      <c r="I80" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2502,10 +2526,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="3" t="s">
+      <c r="J82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2549,28 +2573,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="3">
+      <c r="A84" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="3">
+      <c r="C84" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2595,28 +2619,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="3">
+      <c r="B86" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="3">
+      <c r="C86" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="3">
+      <c r="D86" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="3">
+      <c r="F86" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="3">
+      <c r="G86" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="3">
+      <c r="H86" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="3">
+      <c r="I86" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2675,10 +2699,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="3" t="s">
+      <c r="J88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2722,28 +2746,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="3">
+      <c r="A90" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="3">
+      <c r="C90" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2768,28 +2792,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="3">
+      <c r="I92" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2848,10 +2872,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="J94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2895,28 +2919,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="3">
+      <c r="A96" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="3">
+      <c r="C96" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2941,28 +2965,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="3">
+      <c r="C98" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="3">
+      <c r="D98" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="3">
+      <c r="I98" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3166,10 +3190,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="3" t="s">
+      <c r="J105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3213,28 +3237,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="3">
+      <c r="A107" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="3">
+      <c r="C107" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3259,28 +3283,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="3">
+      <c r="C109" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="3">
+      <c r="D109" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="3">
+      <c r="I109" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3339,10 +3363,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="3" t="s">
+      <c r="J111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3386,28 +3410,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="3">
+      <c r="C113" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3432,28 +3456,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3536,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="3" t="s">
+      <c r="J117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3583,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="3">
+      <c r="A119" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="3">
+      <c r="C119" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3629,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="3">
+      <c r="C121" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="3">
+      <c r="D121" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="3">
+      <c r="I121" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3685,10 +3709,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="3" t="s">
+      <c r="J123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3732,28 +3756,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="3">
+      <c r="A125" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="3">
+      <c r="C125" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3778,28 +3802,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="3">
+      <c r="C127" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="3">
+      <c r="D127" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="3">
+      <c r="I127" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3858,10 +3882,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="3" t="s">
+      <c r="J129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3905,28 +3929,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="3">
+      <c r="A131" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="3">
+      <c r="C131" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3951,28 +3975,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="3">
+      <c r="C133" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="3">
+      <c r="D133" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="3">
+      <c r="I133" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4031,10 +4055,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="3" t="s">
+      <c r="J135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4078,28 +4102,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="3">
+      <c r="A137" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="3">
+      <c r="C137" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4124,28 +4148,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="3">
+      <c r="C139" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="3">
+      <c r="D139" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="3">
+      <c r="I139" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4204,10 +4228,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="3" t="s">
+      <c r="J141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4251,28 +4275,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="A143" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="3">
+      <c r="C143" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4297,28 +4321,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="3">
+      <c r="I145" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4377,10 +4401,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="3" t="s">
+      <c r="J147" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4424,28 +4448,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="3">
+      <c r="A149" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="3">
+      <c r="B149" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="3">
+      <c r="C149" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="3">
+      <c r="F149" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="3">
+      <c r="G149" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="3">
+      <c r="H149" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4470,28 +4494,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="3">
+      <c r="C151" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="3">
+      <c r="D151" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="3">
+      <c r="I151" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4550,10 +4574,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="3" t="s">
+      <c r="J153" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4597,28 +4621,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="3">
+      <c r="A155" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="3">
+      <c r="B155" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="3">
+      <c r="C155" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="3">
+      <c r="F155" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="3">
+      <c r="G155" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="3">
+      <c r="H155" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4643,28 +4667,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="3">
+      <c r="C157" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="3">
+      <c r="D157" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="3">
+      <c r="I157" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4723,10 +4747,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="3" t="s">
+      <c r="J159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4770,28 +4794,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="3">
+      <c r="A161" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="3">
+      <c r="C161" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4816,28 +4840,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="3">
+      <c r="C163" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="3">
+      <c r="D163" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="3">
+      <c r="I163" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4896,10 +4920,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="3" t="s">
+      <c r="J165" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4943,28 +4967,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="3">
+      <c r="A167" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="3">
+      <c r="C167" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4989,28 +5013,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="3">
+      <c r="C169" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="3">
+      <c r="D169" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="3">
+      <c r="I169" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5069,10 +5093,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5116,28 +5140,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5162,28 +5186,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5242,10 +5266,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="3" t="s">
+      <c r="J177" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5289,28 +5313,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="3">
+      <c r="A179" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="3">
+      <c r="C179" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5335,28 +5359,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="3">
+      <c r="C181" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="3">
+      <c r="D181" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="3">
+      <c r="I181" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5415,10 +5439,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="3" t="s">
+      <c r="J183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5462,28 +5486,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="3">
+      <c r="C185" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5508,28 +5532,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5588,10 +5612,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="3" t="s">
+      <c r="J189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5635,28 +5659,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="3">
+      <c r="C191" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5681,28 +5705,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5761,10 +5785,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="3" t="s">
+      <c r="J195" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5808,28 +5832,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="3">
+      <c r="A197" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="3">
+      <c r="C197" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5854,28 +5878,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="3">
+      <c r="B199" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="3">
+      <c r="C199" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="3">
+      <c r="D199" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="3">
+      <c r="E199" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="3">
+      <c r="F199" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="3">
+      <c r="G199" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="3">
+      <c r="H199" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="3">
+      <c r="I199" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5934,10 +5958,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="3" t="s">
+      <c r="J201" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5981,28 +6005,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="3">
+      <c r="A203" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="3">
+      <c r="B203" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="3">
+      <c r="C203" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="3">
+      <c r="E203" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="3">
+      <c r="F203" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="3">
+      <c r="G203" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="3">
+      <c r="H203" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6027,28 +6051,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="3">
+      <c r="C205" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="3">
+      <c r="D205" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="3">
+      <c r="I205" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6107,10 +6131,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="J207" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6154,28 +6178,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="3">
+      <c r="A209" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="3">
+      <c r="C209" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6200,28 +6224,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="3">
+      <c r="C211" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="3">
+      <c r="D211" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="3">
+      <c r="I211" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6280,10 +6304,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="3" t="s">
+      <c r="J213" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6327,28 +6351,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="3">
+      <c r="A215" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="3">
+      <c r="B215" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="3">
+      <c r="C215" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="3">
+      <c r="E215" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="3">
+      <c r="F215" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="3">
+      <c r="G215" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="3">
+      <c r="H215" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6373,28 +6397,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="3">
+      <c r="B217" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="3">
+      <c r="C217" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="3">
+      <c r="D217" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="3">
+      <c r="E217" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="3">
+      <c r="F217" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="3">
+      <c r="G217" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="3">
+      <c r="H217" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="3">
+      <c r="I217" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6453,10 +6477,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6500,28 +6524,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6546,28 +6570,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6650,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="3" t="s">
+      <c r="J225" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6673,28 +6697,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="3">
+      <c r="A227" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="3">
+      <c r="C227" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6743,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="3">
+      <c r="C229" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="3">
+      <c r="D229" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="3">
+      <c r="I229" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6799,10 +6823,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="3" t="s">
+      <c r="J231" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6846,28 +6870,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="3">
+      <c r="A233" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="3">
+      <c r="B233" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="3">
+      <c r="C233" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="3">
+      <c r="E233" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="3">
+      <c r="F233" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="3">
+      <c r="G233" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="3">
+      <c r="H233" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6892,28 +6916,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="3">
+      <c r="C235" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="3">
+      <c r="D235" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="3">
+      <c r="I235" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6996,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="3" t="s">
+      <c r="J237" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7019,28 +7043,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="3">
+      <c r="A239" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="3">
+      <c r="B239" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="3">
+      <c r="C239" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="3">
+      <c r="E239" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="3">
+      <c r="F239" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="3">
+      <c r="G239" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="3">
+      <c r="H239" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7089,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="3">
+      <c r="C241" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="3">
+      <c r="D241" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="3">
+      <c r="I241" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7169,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="3" t="s">
+      <c r="J243" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7192,28 +7216,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="3">
+      <c r="A245" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="3">
+      <c r="B245" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="3">
+      <c r="C245" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="3">
+      <c r="E245" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="3">
+      <c r="F245" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="3">
+      <c r="G245" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="3">
+      <c r="H245" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7262,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="3">
+      <c r="C247" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="3">
+      <c r="D247" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="3">
+      <c r="I247" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7318,10 +7342,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="3" t="s">
+      <c r="J249" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7365,28 +7389,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="3">
+      <c r="A251" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="3">
+      <c r="C251" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7411,28 +7435,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="3">
+      <c r="C253" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="3">
+      <c r="D253" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="3">
+      <c r="I253" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7491,10 +7515,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="3" t="s">
+      <c r="J255" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7538,28 +7562,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="3">
+      <c r="A257" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="3">
+      <c r="B257" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="3">
+      <c r="C257" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="3">
+      <c r="E257" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="3">
+      <c r="F257" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="3">
+      <c r="G257" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="3">
+      <c r="H257" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7584,28 +7608,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="3">
+      <c r="B259" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="3">
+      <c r="C259" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="3">
+      <c r="D259" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="3">
+      <c r="E259" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="3">
+      <c r="F259" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="3">
+      <c r="G259" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="3">
+      <c r="H259" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="3">
+      <c r="I259" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7688,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
+      <c r="J261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7735,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="3">
+      <c r="A263" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="3">
+      <c r="B263" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="3">
+      <c r="C263" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="3">
+      <c r="E263" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="3">
+      <c r="F263" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="3">
+      <c r="G263" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="3">
+      <c r="H263" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7781,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="3">
+      <c r="C265" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="3">
+      <c r="D265" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="3">
+      <c r="I265" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7837,10 +7861,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="3" t="s">
+      <c r="J267" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7884,28 +7908,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="3">
+      <c r="A269" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="3">
+      <c r="B269" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="3">
+      <c r="C269" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="3">
+      <c r="E269" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="3">
+      <c r="F269" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="3">
+      <c r="G269" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="3">
+      <c r="H269" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7930,28 +7954,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="3">
+      <c r="B271" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="3">
+      <c r="C271" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="3">
+      <c r="D271" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="3">
+      <c r="E271" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="3">
+      <c r="F271" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="3">
+      <c r="G271" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="3">
+      <c r="H271" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="3">
+      <c r="I271" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8126,10 +8150,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="3" t="s">
+      <c r="J277" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8173,28 +8197,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="3">
+      <c r="A279" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="3">
+      <c r="B279" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="3">
+      <c r="C279" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="3">
+      <c r="E279" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="3">
+      <c r="F279" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="3">
+      <c r="G279" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="3">
+      <c r="H279" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8219,28 +8243,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="3">
+      <c r="B281" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="3">
+      <c r="C281" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="3">
+      <c r="D281" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="3">
+      <c r="E281" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="3">
+      <c r="F281" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="3">
+      <c r="G281" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="3">
+      <c r="H281" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="3">
+      <c r="I281" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8299,10 +8323,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="3" t="s">
+      <c r="J283" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8346,28 +8370,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="3">
+      <c r="A285" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="3">
+      <c r="B285" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="3">
+      <c r="C285" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="3">
+      <c r="E285" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="3">
+      <c r="F285" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="3">
+      <c r="G285" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="3">
+      <c r="H285" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8392,28 +8416,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="3">
+      <c r="B287" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="3">
+      <c r="C287" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="3">
+      <c r="D287" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="3">
+      <c r="E287" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="3">
+      <c r="F287" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="3">
+      <c r="G287" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="3">
+      <c r="H287" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="3">
+      <c r="I287" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8472,10 +8496,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="3" t="s">
+      <c r="J289" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8519,28 +8543,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="3">
+      <c r="A291" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="3">
+      <c r="B291" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="3">
+      <c r="C291" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="3">
+      <c r="E291" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="3">
+      <c r="F291" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="3">
+      <c r="G291" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="3">
+      <c r="H291" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8565,28 +8589,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="3">
+      <c r="B293" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="3">
+      <c r="C293" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="3">
+      <c r="D293" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="3">
+      <c r="E293" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="3">
+      <c r="F293" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="3">
+      <c r="G293" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="3">
+      <c r="H293" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="3">
+      <c r="I293" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8645,10 +8669,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="3" t="s">
+      <c r="J295" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8692,28 +8716,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="3">
+      <c r="A297" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="3">
+      <c r="B297" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="3">
+      <c r="C297" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="3">
+      <c r="E297" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="3">
+      <c r="F297" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="3">
+      <c r="G297" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="3">
+      <c r="H297" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8738,28 +8762,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="3">
+      <c r="B299" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="3">
+      <c r="C299" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="3">
+      <c r="D299" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="3">
+      <c r="E299" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="3">
+      <c r="F299" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="3">
+      <c r="G299" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="3">
+      <c r="H299" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="3">
+      <c r="I299" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8818,10 +8842,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="3" t="s">
+      <c r="J301" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8865,28 +8889,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="3">
+      <c r="A303" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="3">
+      <c r="B303" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="3">
+      <c r="C303" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="3">
+      <c r="E303" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="3">
+      <c r="F303" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="3">
+      <c r="G303" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="3">
+      <c r="H303" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8911,28 +8935,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="3">
+      <c r="B305" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="3">
+      <c r="C305" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="3">
+      <c r="D305" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="3">
+      <c r="E305" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="3">
+      <c r="F305" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="3">
+      <c r="G305" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="3">
+      <c r="H305" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="3">
+      <c r="I305" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8991,10 +9015,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="3" t="s">
+      <c r="J307" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9038,28 +9062,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="3">
+      <c r="A309" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="3">
+      <c r="B309" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="3">
+      <c r="C309" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="3">
+      <c r="E309" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="3">
+      <c r="F309" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="3">
+      <c r="G309" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="3">
+      <c r="H309" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9084,28 +9108,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="3">
+      <c r="B311" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="3">
+      <c r="C311" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="3">
+      <c r="D311" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="3">
+      <c r="E311" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="3">
+      <c r="F311" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="3">
+      <c r="G311" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="3">
+      <c r="H311" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="3">
+      <c r="I311" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9164,10 +9188,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="3" t="s">
+      <c r="J313" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9211,28 +9235,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="3">
+      <c r="A315" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="3">
+      <c r="B315" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="3">
+      <c r="C315" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="3">
+      <c r="E315" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="3">
+      <c r="F315" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="3">
+      <c r="G315" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="3">
+      <c r="H315" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9257,28 +9281,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="3">
+      <c r="B317" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="3">
+      <c r="C317" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="3">
+      <c r="D317" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="3">
+      <c r="E317" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="3">
+      <c r="F317" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="3">
+      <c r="G317" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="3">
+      <c r="H317" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="3">
+      <c r="I317" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9337,10 +9361,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="3" t="s">
+      <c r="J319" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9384,28 +9408,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="3">
+      <c r="A321" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="3">
+      <c r="B321" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="3">
+      <c r="C321" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="3">
+      <c r="E321" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="3">
+      <c r="F321" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="3">
+      <c r="G321" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="3">
+      <c r="H321" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9430,28 +9454,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="3">
+      <c r="B323" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="3">
+      <c r="C323" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="3">
+      <c r="D323" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="3">
+      <c r="E323" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="3">
+      <c r="F323" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="3">
+      <c r="G323" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="3">
+      <c r="H323" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="3">
+      <c r="I323" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9510,10 +9534,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="3" t="s">
+      <c r="J325" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9557,28 +9581,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="3">
+      <c r="A327" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="3">
+      <c r="B327" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="3">
+      <c r="C327" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="3">
+      <c r="E327" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="3">
+      <c r="F327" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="3">
+      <c r="G327" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="3">
+      <c r="H327" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9603,28 +9627,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="3">
+      <c r="B329" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="3">
+      <c r="C329" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="3">
+      <c r="D329" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="3">
+      <c r="E329" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="3">
+      <c r="F329" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="3">
+      <c r="G329" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="3">
+      <c r="H329" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="3">
+      <c r="I329" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9683,10 +9707,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="3" t="s">
+      <c r="J331" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9730,28 +9754,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="3">
+      <c r="A333" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="3">
+      <c r="B333" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="3">
+      <c r="C333" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="3">
+      <c r="E333" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="3">
+      <c r="F333" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="3">
+      <c r="G333" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="3">
+      <c r="H333" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9776,28 +9800,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="3">
+      <c r="B335" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="3">
+      <c r="C335" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="3">
+      <c r="D335" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="3">
+      <c r="E335" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="3">
+      <c r="F335" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="3">
+      <c r="G335" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="3">
+      <c r="H335" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="3">
+      <c r="I335" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9856,10 +9880,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="3" t="s">
+      <c r="J337" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9903,28 +9927,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="3">
+      <c r="A339" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="3">
+      <c r="B339" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="3">
+      <c r="C339" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="3">
+      <c r="E339" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="3">
+      <c r="F339" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="3">
+      <c r="G339" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="3">
+      <c r="H339" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9949,28 +9973,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="3">
+      <c r="B341" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="3">
+      <c r="C341" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="3">
+      <c r="D341" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="3">
+      <c r="E341" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="3">
+      <c r="F341" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="3">
+      <c r="G341" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="3">
+      <c r="H341" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="3">
+      <c r="I341" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10029,10 +10053,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="3" t="s">
+      <c r="J343" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10076,28 +10100,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="3">
+      <c r="A345" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="3">
+      <c r="B345" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="3">
+      <c r="C345" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="3">
+      <c r="E345" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="3">
+      <c r="F345" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="3">
+      <c r="G345" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="3">
+      <c r="H345" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10122,28 +10146,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="3">
+      <c r="B347" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="3">
+      <c r="C347" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="3">
+      <c r="D347" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="3">
+      <c r="E347" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="3">
+      <c r="F347" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="3">
+      <c r="G347" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="3">
+      <c r="H347" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="3">
+      <c r="I347" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10202,10 +10226,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="3" t="s">
+      <c r="J349" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10249,28 +10273,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="3">
+      <c r="A351" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="3">
+      <c r="B351" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="3">
+      <c r="C351" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="3">
+      <c r="E351" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="3">
+      <c r="F351" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="3">
+      <c r="G351" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="3">
+      <c r="H351" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10295,28 +10319,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="3">
+      <c r="B353" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="3">
+      <c r="C353" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="3">
+      <c r="D353" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="3">
+      <c r="E353" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="3">
+      <c r="F353" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="3">
+      <c r="G353" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="3">
+      <c r="H353" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="3">
+      <c r="I353" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10375,10 +10399,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="3" t="s">
+      <c r="J355" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10422,28 +10446,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="3">
+      <c r="A357" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="3">
+      <c r="B357" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="3">
+      <c r="C357" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="3">
+      <c r="E357" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="3">
+      <c r="F357" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="3">
+      <c r="G357" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="3">
+      <c r="H357" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10468,28 +10492,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="3">
+      <c r="B359" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="3">
+      <c r="C359" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="3">
+      <c r="D359" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="3">
+      <c r="E359" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="3">
+      <c r="F359" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="3">
+      <c r="G359" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="3">
+      <c r="H359" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="3">
+      <c r="I359" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10664,10 +10688,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="3" t="s">
+      <c r="J365" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10711,28 +10735,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="3">
+      <c r="A367" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="3">
+      <c r="B367" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="3">
+      <c r="C367" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="3">
+      <c r="E367" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="3">
+      <c r="F367" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="3">
+      <c r="G367" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="3">
+      <c r="H367" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10757,28 +10781,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="3">
+      <c r="B369" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="3">
+      <c r="C369" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="3">
+      <c r="D369" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="3">
+      <c r="E369" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="3">
+      <c r="F369" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="3">
+      <c r="G369" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="3">
+      <c r="H369" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="3">
+      <c r="I369" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10837,10 +10861,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="3" t="s">
+      <c r="J371" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10884,28 +10908,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="3">
+      <c r="A373" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="3">
+      <c r="B373" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="3">
+      <c r="C373" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="3">
+      <c r="E373" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="3">
+      <c r="F373" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="3">
+      <c r="G373" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="3">
+      <c r="H373" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10930,28 +10954,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="3">
+      <c r="B375" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="3">
+      <c r="C375" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="3">
+      <c r="D375" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="3">
+      <c r="E375" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="3">
+      <c r="F375" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="3">
+      <c r="G375" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="3">
+      <c r="H375" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="3">
+      <c r="I375" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11010,10 +11034,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="3" t="s">
+      <c r="J377" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11057,28 +11081,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="3">
+      <c r="A379" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="3">
+      <c r="B379" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="3">
+      <c r="C379" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="3">
+      <c r="E379" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="3">
+      <c r="F379" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="3">
+      <c r="G379" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="3">
+      <c r="H379" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11103,28 +11127,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="3">
+      <c r="B381" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="3">
+      <c r="C381" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="3">
+      <c r="D381" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="3">
+      <c r="E381" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="3">
+      <c r="F381" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="3">
+      <c r="G381" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="3">
+      <c r="H381" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="3">
+      <c r="I381" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11183,10 +11207,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="3" t="s">
+      <c r="J383" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11230,28 +11254,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="3">
+      <c r="A385" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="3">
+      <c r="B385" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="3">
+      <c r="C385" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="3">
+      <c r="E385" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="3">
+      <c r="F385" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="3">
+      <c r="G385" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="3">
+      <c r="H385" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11276,28 +11300,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="3">
+      <c r="B387" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="3">
+      <c r="C387" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="3">
+      <c r="D387" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="3">
+      <c r="E387" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="3">
+      <c r="F387" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="3">
+      <c r="G387" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="3">
+      <c r="H387" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="3">
+      <c r="I387" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11356,10 +11380,10 @@
       <c r="I389">
         <f>((C389-C388)^2+(D389- D388)^2)^.5</f>
       </c>
-      <c r="J389" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K389" s="3" t="s">
+      <c r="J389" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K389" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L389" t="n">
@@ -11403,28 +11427,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="s" s="3">
+      <c r="A391" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B391" t="s" s="3">
+      <c r="B391" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C391" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s" s="3">
+      <c r="C391" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E391" t="s" s="3">
+      <c r="E391" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F391" t="s" s="3">
+      <c r="F391" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G391" t="s" s="3">
+      <c r="G391" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H391" t="s" s="3">
+      <c r="H391" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11449,28 +11473,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="B393" t="s" s="3">
+      <c r="B393" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C393" t="s" s="3">
+      <c r="C393" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D393" t="s" s="3">
+      <c r="D393" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E393" t="s" s="3">
+      <c r="E393" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F393" t="s" s="3">
+      <c r="F393" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G393" t="s" s="3">
+      <c r="G393" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H393" t="s" s="3">
+      <c r="H393" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I393" t="s" s="3">
+      <c r="I393" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11529,10 +11553,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="3" t="s">
+      <c r="J395" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11576,28 +11600,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="3">
+      <c r="A397" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="3">
+      <c r="B397" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="3">
+      <c r="C397" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="3">
+      <c r="E397" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="3">
+      <c r="F397" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="3">
+      <c r="G397" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="3">
+      <c r="H397" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11622,28 +11646,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="3">
+      <c r="B399" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="3">
+      <c r="C399" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="3">
+      <c r="D399" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="3">
+      <c r="E399" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="3">
+      <c r="F399" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="3">
+      <c r="G399" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="3">
+      <c r="H399" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="3">
+      <c r="I399" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11702,10 +11726,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="3" t="s">
+      <c r="J401" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
@@ -11749,28 +11773,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="s" s="3">
+      <c r="A403" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B403" t="s" s="3">
+      <c r="B403" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C403" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D403" t="s" s="3">
+      <c r="C403" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E403" t="s" s="3">
+      <c r="E403" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F403" t="s" s="3">
+      <c r="F403" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G403" t="s" s="3">
+      <c r="G403" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H403" t="s" s="3">
+      <c r="H403" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11795,28 +11819,28 @@
       </c>
     </row>
     <row r="405">
-      <c r="B405" t="s" s="3">
+      <c r="B405" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C405" t="s" s="3">
+      <c r="C405" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D405" t="s" s="3">
+      <c r="D405" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E405" t="s" s="3">
+      <c r="E405" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F405" t="s" s="3">
+      <c r="F405" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G405" t="s" s="3">
+      <c r="G405" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H405" t="s" s="3">
+      <c r="H405" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I405" t="s" s="3">
+      <c r="I405" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11875,10 +11899,10 @@
       <c r="I407">
         <f>((C407-C406)^2+(D407- D406)^2)^.5</f>
       </c>
-      <c r="J407" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K407" s="3" t="s">
+      <c r="J407" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K407" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L407" t="n">
@@ -11922,28 +11946,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="s" s="3">
+      <c r="A409" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B409" t="s" s="3">
+      <c r="B409" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C409" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D409" t="s" s="3">
+      <c r="C409" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D409" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E409" t="s" s="3">
+      <c r="E409" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F409" t="s" s="3">
+      <c r="F409" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G409" t="s" s="3">
+      <c r="G409" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H409" t="s" s="3">
+      <c r="H409" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11968,28 +11992,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="B411" t="s" s="3">
+      <c r="B411" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C411" t="s" s="3">
+      <c r="C411" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D411" t="s" s="3">
+      <c r="D411" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E411" t="s" s="3">
+      <c r="E411" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F411" t="s" s="3">
+      <c r="F411" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G411" t="s" s="3">
+      <c r="G411" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H411" t="s" s="3">
+      <c r="H411" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I411" t="s" s="3">
+      <c r="I411" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12048,10 +12072,10 @@
       <c r="I413">
         <f>((C413-C412)^2+(D413- D412)^2)^.5</f>
       </c>
-      <c r="J413" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K413" s="3" t="s">
+      <c r="J413" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K413" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L413" t="n">
@@ -12095,28 +12119,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="s" s="3">
+      <c r="A415" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B415" t="s" s="3">
+      <c r="B415" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C415" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D415" t="s" s="3">
+      <c r="C415" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D415" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E415" t="s" s="3">
+      <c r="E415" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F415" t="s" s="3">
+      <c r="F415" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G415" t="s" s="3">
+      <c r="G415" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H415" t="s" s="3">
+      <c r="H415" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12141,28 +12165,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="B417" t="s" s="3">
+      <c r="B417" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C417" t="s" s="3">
+      <c r="C417" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D417" t="s" s="3">
+      <c r="D417" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E417" t="s" s="3">
+      <c r="E417" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F417" t="s" s="3">
+      <c r="F417" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G417" t="s" s="3">
+      <c r="G417" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H417" t="s" s="3">
+      <c r="H417" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I417" t="s" s="3">
+      <c r="I417" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12221,10 +12245,10 @@
       <c r="I419">
         <f>((C419-C418)^2+(D419- D418)^2)^.5</f>
       </c>
-      <c r="J419" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K419" s="3" t="s">
+      <c r="J419" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K419" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L419" t="n">
@@ -12268,28 +12292,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="s" s="3">
+      <c r="A421" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B421" t="s" s="3">
+      <c r="B421" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C421" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D421" t="s" s="3">
+      <c r="C421" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E421" t="s" s="3">
+      <c r="E421" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F421" t="s" s="3">
+      <c r="F421" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G421" t="s" s="3">
+      <c r="G421" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H421" t="s" s="3">
+      <c r="H421" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12314,28 +12338,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="B423" t="s" s="3">
+      <c r="B423" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C423" t="s" s="3">
+      <c r="C423" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D423" t="s" s="3">
+      <c r="D423" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E423" t="s" s="3">
+      <c r="E423" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F423" t="s" s="3">
+      <c r="F423" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G423" t="s" s="3">
+      <c r="G423" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H423" t="s" s="3">
+      <c r="H423" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I423" t="s" s="3">
+      <c r="I423" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12394,10 +12418,10 @@
       <c r="I425">
         <f>((C425-C424)^2+(D425- D424)^2)^.5</f>
       </c>
-      <c r="J425" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K425" s="3" t="s">
+      <c r="J425" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K425" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L425" t="n">
@@ -12441,28 +12465,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s" s="3">
+      <c r="A427" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B427" t="s" s="3">
+      <c r="B427" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C427" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D427" t="s" s="3">
+      <c r="C427" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E427" t="s" s="3">
+      <c r="E427" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F427" t="s" s="3">
+      <c r="F427" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G427" t="s" s="3">
+      <c r="G427" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H427" t="s" s="3">
+      <c r="H427" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12487,28 +12511,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="B429" t="s" s="3">
+      <c r="B429" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C429" t="s" s="3">
+      <c r="C429" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D429" t="s" s="3">
+      <c r="D429" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E429" t="s" s="3">
+      <c r="E429" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F429" t="s" s="3">
+      <c r="F429" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G429" t="s" s="3">
+      <c r="G429" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H429" t="s" s="3">
+      <c r="H429" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I429" t="s" s="3">
+      <c r="I429" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12567,10 +12591,10 @@
       <c r="I431">
         <f>((C431-C430)^2+(D431- D430)^2)^.5</f>
       </c>
-      <c r="J431" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K431" s="3" t="s">
+      <c r="J431" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K431" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L431" t="n">
@@ -12614,28 +12638,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="s" s="3">
+      <c r="A433" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B433" t="s" s="3">
+      <c r="B433" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C433" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D433" t="s" s="3">
+      <c r="C433" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D433" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E433" t="s" s="3">
+      <c r="E433" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F433" t="s" s="3">
+      <c r="F433" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G433" t="s" s="3">
+      <c r="G433" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H433" t="s" s="3">
+      <c r="H433" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12660,28 +12684,28 @@
       </c>
     </row>
     <row r="435">
-      <c r="B435" t="s" s="3">
+      <c r="B435" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C435" t="s" s="3">
+      <c r="C435" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D435" t="s" s="3">
+      <c r="D435" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E435" t="s" s="3">
+      <c r="E435" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F435" t="s" s="3">
+      <c r="F435" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G435" t="s" s="3">
+      <c r="G435" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H435" t="s" s="3">
+      <c r="H435" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I435" t="s" s="3">
+      <c r="I435" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12740,10 +12764,10 @@
       <c r="I437">
         <f>((C437-C436)^2+(D437- D436)^2)^.5</f>
       </c>
-      <c r="J437" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K437" s="3" t="s">
+      <c r="J437" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K437" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L437" t="n">
@@ -12787,28 +12811,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="3">
+      <c r="A439" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B439" t="s" s="3">
+      <c r="B439" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C439" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D439" t="s" s="3">
+      <c r="C439" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E439" t="s" s="3">
+      <c r="E439" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F439" t="s" s="3">
+      <c r="F439" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G439" t="s" s="3">
+      <c r="G439" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H439" t="s" s="3">
+      <c r="H439" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -12833,28 +12857,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="B441" t="s" s="3">
+      <c r="B441" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C441" t="s" s="3">
+      <c r="C441" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D441" t="s" s="3">
+      <c r="D441" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E441" t="s" s="3">
+      <c r="E441" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F441" t="s" s="3">
+      <c r="F441" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G441" t="s" s="3">
+      <c r="G441" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H441" t="s" s="3">
+      <c r="H441" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I441" t="s" s="3">
+      <c r="I441" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -12913,10 +12937,10 @@
       <c r="I443">
         <f>((C443-C442)^2+(D443- D442)^2)^.5</f>
       </c>
-      <c r="J443" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K443" s="3" t="s">
+      <c r="J443" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K443" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L443" t="n">
@@ -12960,28 +12984,28 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s" s="3">
+      <c r="A445" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B445" t="s" s="3">
+      <c r="B445" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C445" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D445" t="s" s="3">
+      <c r="C445" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D445" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E445" t="s" s="3">
+      <c r="E445" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F445" t="s" s="3">
+      <c r="F445" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G445" t="s" s="3">
+      <c r="G445" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H445" t="s" s="3">
+      <c r="H445" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13006,28 +13030,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="B447" t="s" s="3">
+      <c r="B447" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C447" t="s" s="3">
+      <c r="C447" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D447" t="s" s="3">
+      <c r="D447" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E447" t="s" s="3">
+      <c r="E447" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F447" t="s" s="3">
+      <c r="F447" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G447" t="s" s="3">
+      <c r="G447" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H447" t="s" s="3">
+      <c r="H447" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I447" t="s" s="3">
+      <c r="I447" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13086,10 +13110,10 @@
       <c r="I449">
         <f>((C449-C448)^2+(D449- D448)^2)^.5</f>
       </c>
-      <c r="J449" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K449" s="3" t="s">
+      <c r="J449" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K449" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L449" t="n">
@@ -13133,28 +13157,28 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="s" s="3">
+      <c r="A451" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B451" t="s" s="3">
+      <c r="B451" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C451" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D451" t="s" s="3">
+      <c r="C451" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D451" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E451" t="s" s="3">
+      <c r="E451" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F451" t="s" s="3">
+      <c r="F451" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G451" t="s" s="3">
+      <c r="G451" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H451" t="s" s="3">
+      <c r="H451" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13179,28 +13203,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="B453" t="s" s="3">
+      <c r="B453" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C453" t="s" s="3">
+      <c r="C453" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D453" t="s" s="3">
+      <c r="D453" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E453" t="s" s="3">
+      <c r="E453" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F453" t="s" s="3">
+      <c r="F453" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G453" t="s" s="3">
+      <c r="G453" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H453" t="s" s="3">
+      <c r="H453" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I453" t="s" s="3">
+      <c r="I453" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13259,10 +13283,10 @@
       <c r="I455">
         <f>((C455-C454)^2+(D455- D454)^2)^.5</f>
       </c>
-      <c r="J455" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K455" s="3" t="s">
+      <c r="J455" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K455" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L455" t="n">
@@ -13306,28 +13330,28 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="s" s="3">
+      <c r="A457" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B457" t="s" s="3">
+      <c r="B457" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C457" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D457" t="s" s="3">
+      <c r="C457" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D457" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E457" t="s" s="3">
+      <c r="E457" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F457" t="s" s="3">
+      <c r="F457" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G457" t="s" s="3">
+      <c r="G457" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H457" t="s" s="3">
+      <c r="H457" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13352,28 +13376,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="B459" t="s" s="3">
+      <c r="B459" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C459" t="s" s="3">
+      <c r="C459" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D459" t="s" s="3">
+      <c r="D459" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E459" t="s" s="3">
+      <c r="E459" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F459" t="s" s="3">
+      <c r="F459" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G459" t="s" s="3">
+      <c r="G459" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H459" t="s" s="3">
+      <c r="H459" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I459" t="s" s="3">
+      <c r="I459" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13432,10 +13456,10 @@
       <c r="I461">
         <f>((C461-C460)^2+(D461- D460)^2)^.5</f>
       </c>
-      <c r="J461" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K461" s="3" t="s">
+      <c r="J461" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K461" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L461" t="n">
@@ -13479,28 +13503,28 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="s" s="3">
+      <c r="A463" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B463" t="s" s="3">
+      <c r="B463" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C463" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D463" t="s" s="3">
+      <c r="C463" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D463" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E463" t="s" s="3">
+      <c r="E463" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F463" t="s" s="3">
+      <c r="F463" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G463" t="s" s="3">
+      <c r="G463" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H463" t="s" s="3">
+      <c r="H463" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13525,28 +13549,28 @@
       </c>
     </row>
     <row r="465">
-      <c r="B465" t="s" s="3">
+      <c r="B465" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C465" t="s" s="3">
+      <c r="C465" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D465" t="s" s="3">
+      <c r="D465" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E465" t="s" s="3">
+      <c r="E465" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F465" t="s" s="3">
+      <c r="F465" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G465" t="s" s="3">
+      <c r="G465" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H465" t="s" s="3">
+      <c r="H465" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I465" t="s" s="3">
+      <c r="I465" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13605,10 +13629,10 @@
       <c r="I467">
         <f>((C467-C466)^2+(D467- D466)^2)^.5</f>
       </c>
-      <c r="J467" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K467" s="3" t="s">
+      <c r="J467" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K467" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L467" t="n">
@@ -13652,28 +13676,28 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="s" s="3">
+      <c r="A469" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B469" t="s" s="3">
+      <c r="B469" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C469" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D469" t="s" s="3">
+      <c r="C469" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D469" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E469" t="s" s="3">
+      <c r="E469" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F469" t="s" s="3">
+      <c r="F469" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G469" t="s" s="3">
+      <c r="G469" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H469" t="s" s="3">
+      <c r="H469" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13698,28 +13722,28 @@
       </c>
     </row>
     <row r="471">
-      <c r="B471" t="s" s="3">
+      <c r="B471" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C471" t="s" s="3">
+      <c r="C471" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D471" t="s" s="3">
+      <c r="D471" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E471" t="s" s="3">
+      <c r="E471" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F471" t="s" s="3">
+      <c r="F471" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G471" t="s" s="3">
+      <c r="G471" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H471" t="s" s="3">
+      <c r="H471" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I471" t="s" s="3">
+      <c r="I471" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13778,10 +13802,10 @@
       <c r="I473">
         <f>((C473-C472)^2+(D473- D472)^2)^.5</f>
       </c>
-      <c r="J473" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K473" s="3" t="s">
+      <c r="J473" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K473" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L473" t="n">
@@ -13825,28 +13849,28 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="s" s="3">
+      <c r="A475" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B475" t="s" s="3">
+      <c r="B475" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C475" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D475" t="s" s="3">
+      <c r="C475" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D475" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E475" t="s" s="3">
+      <c r="E475" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F475" t="s" s="3">
+      <c r="F475" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G475" t="s" s="3">
+      <c r="G475" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H475" t="s" s="3">
+      <c r="H475" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -13871,28 +13895,28 @@
       </c>
     </row>
     <row r="477">
-      <c r="B477" t="s" s="3">
+      <c r="B477" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C477" t="s" s="3">
+      <c r="C477" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D477" t="s" s="3">
+      <c r="D477" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E477" t="s" s="3">
+      <c r="E477" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F477" t="s" s="3">
+      <c r="F477" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G477" t="s" s="3">
+      <c r="G477" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H477" t="s" s="3">
+      <c r="H477" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I477" t="s" s="3">
+      <c r="I477" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -13951,10 +13975,10 @@
       <c r="I479">
         <f>((C479-C478)^2+(D479- D478)^2)^.5</f>
       </c>
-      <c r="J479" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K479" s="3" t="s">
+      <c r="J479" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K479" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L479" t="n">
@@ -13998,28 +14022,28 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="s" s="3">
+      <c r="A481" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B481" t="s" s="3">
+      <c r="B481" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C481" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D481" t="s" s="3">
+      <c r="C481" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D481" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E481" t="s" s="3">
+      <c r="E481" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F481" t="s" s="3">
+      <c r="F481" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G481" t="s" s="3">
+      <c r="G481" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H481" t="s" s="3">
+      <c r="H481" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -14044,28 +14068,28 @@
       </c>
     </row>
     <row r="483">
-      <c r="B483" t="s" s="3">
+      <c r="B483" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C483" t="s" s="3">
+      <c r="C483" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D483" t="s" s="3">
+      <c r="D483" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E483" t="s" s="3">
+      <c r="E483" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F483" t="s" s="3">
+      <c r="F483" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G483" t="s" s="3">
+      <c r="G483" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H483" t="s" s="3">
+      <c r="H483" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I483" t="s" s="3">
+      <c r="I483" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -14124,10 +14148,10 @@
       <c r="I485">
         <f>((C485-C484)^2+(D485- D484)^2)^.5</f>
       </c>
-      <c r="J485" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K485" s="3" t="s">
+      <c r="J485" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K485" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L485" t="n">
@@ -14171,28 +14195,28 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="s" s="3">
+      <c r="A487" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B487" t="s" s="3">
+      <c r="B487" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C487" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D487" t="s" s="3">
+      <c r="C487" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D487" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E487" t="s" s="3">
+      <c r="E487" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F487" t="s" s="3">
+      <c r="F487" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G487" t="s" s="3">
+      <c r="G487" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H487" t="s" s="3">
+      <c r="H487" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -14217,28 +14241,28 @@
       </c>
     </row>
     <row r="489">
-      <c r="B489" t="s" s="3">
+      <c r="B489" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C489" t="s" s="3">
+      <c r="C489" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D489" t="s" s="3">
+      <c r="D489" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E489" t="s" s="3">
+      <c r="E489" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F489" t="s" s="3">
+      <c r="F489" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G489" t="s" s="3">
+      <c r="G489" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H489" t="s" s="3">
+      <c r="H489" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I489" t="s" s="3">
+      <c r="I489" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -14297,10 +14321,10 @@
       <c r="I491">
         <f>((C491-C490)^2+(D491- D490)^2)^.5</f>
       </c>
-      <c r="J491" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K491" s="3" t="s">
+      <c r="J491" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K491" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L491" t="n">
